--- a/biology/Botanique/Brymela/Brymela.xlsx
+++ b/biology/Botanique/Brymela/Brymela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brymela est un genre de mousses de la famille des Pilotrichaceae. Il comprend une quinzaine d'espèces originaires d'Amérique centrale et du Sud, dont l'espèce type Brymela tutezona.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre se rencontrent en Amérique centrale et du Sud, dont les îles des Caraïbes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre se rencontrent en Amérique centrale et du Sud, dont les îles des Caraïbes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 juin 2021) :
 Brymela acuminata W.R.Buck, 1987
 Brymela callicostelloides W.R.Buck, 1987
 Brymela cavifolia (Mitt.) Vaz-Imbassahy &amp; D.P.Costa
@@ -586,9 +602,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type est Brymela tutezona, décrite par les botanistes Marshall Robert Crosby et Bruce Hampton Allen, en 1985[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est Brymela tutezona, décrite par les botanistes Marshall Robert Crosby et Bruce Hampton Allen, en 1985.
 </t>
         </is>
       </c>
